--- a/Expectation.xlsx
+++ b/Expectation.xlsx
@@ -106,7 +106,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -122,7 +122,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -146,7 +146,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -170,7 +170,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -178,7 +178,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -194,7 +194,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -202,7 +202,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -210,7 +210,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -234,7 +234,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -242,7 +242,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -250,7 +250,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">

--- a/Expectation.xlsx
+++ b/Expectation.xlsx
@@ -66,7 +66,7 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="2">
@@ -74,7 +74,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -82,7 +82,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -114,7 +114,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -122,7 +122,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -138,7 +138,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -146,7 +146,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -154,7 +154,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -162,7 +162,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -170,7 +170,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -178,7 +178,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -186,7 +186,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -194,7 +194,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -202,7 +202,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -210,7 +210,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -218,7 +218,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -226,7 +226,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -234,7 +234,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
@@ -250,7 +250,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">

--- a/Expectation.xlsx
+++ b/Expectation.xlsx
@@ -66,7 +66,7 @@
         <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
@@ -74,7 +74,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -82,7 +82,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -98,7 +98,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -106,7 +106,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -114,7 +114,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -122,7 +122,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -138,7 +138,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -154,7 +154,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -162,7 +162,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -170,7 +170,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -178,7 +178,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -186,7 +186,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -202,7 +202,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -210,7 +210,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -218,7 +218,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -226,7 +226,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -234,7 +234,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -242,7 +242,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -250,7 +250,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
